--- a/data/Cleaned_Sales_Data.xlsx
+++ b/data/Cleaned_Sales_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Streamlit Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB8C72-CEB8-458E-B3A1-A8FBFDB90FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1AAEC-A630-4AD3-A083-E1AD4B808255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,6 +224,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,6 +255,7 @@
       <sheetName val="Food Cost"/>
       <sheetName val="Wire Frame"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="Little Caesars Dashboard Tim"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -262,6 +264,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,7 @@
     <col min="26" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>6</v>
       </c>
@@ -650,13 +653,13 @@
         <f>SUMIFS([1]!Table3[Total Food Cost],[1]!Table3[ [ Store] ],[1]!Table1[[#This Row],[ Store Name]],[1]!Table3[[Week Starting on ]],[1]!Table1[[#This Row],[Date]])</f>
         <v>6236.6289940625284</v>
       </c>
-      <c r="Y2" s="2">
-        <f>[1]!Table1[[#This Row],[Food Cost]]/[1]!Table1[[#This Row],[Total Revenue]]</f>
-        <v>0.20660550821990761</v>
+      <c r="Y2" s="6">
+        <v>20.660550821990761</v>
       </c>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>6</v>
       </c>
@@ -730,13 +733,13 @@
         <f>SUMIFS([1]!Table3[Total Food Cost],[1]!Table3[ [ Store] ],[1]!Table1[[#This Row],[ Store Name]],[1]!Table3[[Week Starting on ]],[1]!Table1[[#This Row],[Date]])</f>
         <v>10143.619135047902</v>
       </c>
-      <c r="Y3" s="2">
-        <f>[1]!Table1[[#This Row],[Food Cost]]/[1]!Table1[[#This Row],[Total Revenue]]</f>
-        <v>0.22816995014551109</v>
+      <c r="Y3" s="6">
+        <v>22.816995014551107</v>
       </c>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>6</v>
       </c>
@@ -810,13 +813,13 @@
         <f>SUMIFS([1]!Table3[Total Food Cost],[1]!Table3[ [ Store] ],[1]!Table1[[#This Row],[ Store Name]],[1]!Table3[[Week Starting on ]],[1]!Table1[[#This Row],[Date]])</f>
         <v>3896.4590189533656</v>
       </c>
-      <c r="Y4" s="2">
-        <f>[1]!Table1[[#This Row],[Food Cost]]/[1]!Table1[[#This Row],[Total Revenue]]</f>
-        <v>0.18941570093313023</v>
+      <c r="Y4" s="6">
+        <v>18.941570093313022</v>
       </c>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -889,11 +892,13 @@
       <c r="X5" s="2">
         <v>6341.5921997793675</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0.20382418952109699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y5" s="6">
+        <v>20.382418952109699</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -966,11 +971,13 @@
       <c r="X6" s="2">
         <v>9303.5155721975952</v>
       </c>
-      <c r="Y6" s="2">
-        <v>0.22164753329704759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y6" s="6">
+        <v>22.164753329704759</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1043,11 +1050,13 @@
       <c r="X7" s="2">
         <v>3399.4126699839808</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0.18950700544391499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y7" s="6">
+        <v>18.950700544391498</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1121,12 +1130,13 @@
         <f>SUMIFS([1]!Table3[Total Food Cost],[1]!Table3[ [ Store] ],[1]!Table1[[#This Row],[ Store Name]],[1]!Table3[[Week Starting on ]],[1]!Table1[[#This Row],[Date]])</f>
         <v>5283.3018002076897</v>
       </c>
-      <c r="Y8" s="2">
-        <f>[1]!Table1[[#This Row],[Food Cost]]/[1]!Table1[[#This Row],[Total Revenue]]</f>
-        <v>0.19540948209672382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y8" s="6">
+        <v>19.540948209672383</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1199,11 +1209,13 @@
       <c r="X9" s="2">
         <v>8680.3436764834205</v>
       </c>
-      <c r="Y9" s="2">
-        <v>0.21689087439001031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y9" s="6">
+        <v>21.689087439001032</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1276,11 +1288,13 @@
       <c r="X10" s="2">
         <v>3492.292332697762</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0.1869937927058051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y10" s="6">
+        <v>18.699379270580511</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1353,11 +1367,13 @@
       <c r="X11" s="2">
         <v>6163.808633719781</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0.20244374108598409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y11" s="6">
+        <v>20.244374108598411</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -1430,11 +1446,13 @@
       <c r="X12" s="2">
         <v>9225.159605126144</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0.21888841736390169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y12" s="6">
+        <v>21.88884173639017</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -1507,11 +1525,13 @@
       <c r="X13" s="2">
         <v>3790.2619535402978</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0.18844143125745369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y13" s="6">
+        <v>18.844143125745369</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -1584,11 +1604,13 @@
       <c r="X14" s="2">
         <v>6084.8394270954686</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0.19941009192754419</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y14" s="6">
+        <v>19.941009192754418</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -1661,11 +1683,13 @@
       <c r="X15" s="2">
         <v>9542.0787961025417</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0.2173400187523698</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y15" s="6">
+        <v>21.734001875236981</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1738,11 +1762,13 @@
       <c r="X16" s="2">
         <v>3717.4008684825521</v>
       </c>
-      <c r="Y16" s="2">
-        <v>0.18530116883580169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y16" s="6">
+        <v>18.53011688358017</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>4</v>
       </c>
@@ -1815,11 +1841,13 @@
       <c r="X17" s="2">
         <v>6344.5924760766502</v>
       </c>
-      <c r="Y17" s="2">
-        <v>0.20176138271478081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="6">
+        <v>20.176138271478081</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -1892,11 +1920,13 @@
       <c r="X18" s="2">
         <v>9763.8271773249508</v>
       </c>
-      <c r="Y18" s="2">
-        <v>0.2197444261669054</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" s="6">
+        <v>21.974442616690538</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -1969,11 +1999,13 @@
       <c r="X19" s="2">
         <v>3640.2072892145388</v>
       </c>
-      <c r="Y19" s="2">
-        <v>0.18734453163778381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y19" s="6">
+        <v>18.73445316377838</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2046,11 +2078,13 @@
       <c r="X20" s="2">
         <v>6507.3500923436131</v>
       </c>
-      <c r="Y20" s="2">
-        <v>0.1999810107346445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y20" s="6">
+        <v>19.998101073464451</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -2123,11 +2157,13 @@
       <c r="X21" s="2">
         <v>10053.104785686501</v>
       </c>
-      <c r="Y21" s="2">
-        <v>0.21980870054872889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" s="6">
+        <v>21.980870054872888</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -2200,11 +2236,13 @@
       <c r="X22" s="2">
         <v>3735.0257432806611</v>
       </c>
-      <c r="Y22" s="2">
-        <v>0.18806463655340369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y22" s="6">
+        <v>18.806463655340369</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -2277,11 +2315,13 @@
       <c r="X23" s="2">
         <v>6623.3623744150545</v>
       </c>
-      <c r="Y23" s="2">
-        <v>0.19990077563822009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="6">
+        <v>19.990077563822009</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -2354,11 +2394,13 @@
       <c r="X24" s="2">
         <v>9710.1486194116806</v>
       </c>
-      <c r="Y24" s="2">
-        <v>0.2189633477520336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="6">
+        <v>21.896334775203361</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -2431,11 +2473,13 @@
       <c r="X25" s="2">
         <v>3988.207414679815</v>
       </c>
-      <c r="Y25" s="2">
-        <v>0.18644533502689081</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="6">
+        <v>18.644533502689082</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -2508,11 +2552,13 @@
       <c r="X26" s="2">
         <v>6645.0462376090691</v>
       </c>
-      <c r="Y26" s="2">
-        <v>0.20194130455329859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="6">
+        <v>20.194130455329859</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -2585,11 +2631,13 @@
       <c r="X27" s="2">
         <v>9650.6715961393693</v>
       </c>
-      <c r="Y27" s="2">
-        <v>0.2224997174828196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="6">
+        <v>22.249971748281961</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -2662,11 +2710,13 @@
       <c r="X28" s="2">
         <v>4190.4963002023414</v>
       </c>
-      <c r="Y28" s="2">
-        <v>0.19156256772248301</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="6">
+        <v>19.156256772248302</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -2739,11 +2789,13 @@
       <c r="X29" s="2">
         <v>6771.889522581766</v>
       </c>
-      <c r="Y29" s="2">
-        <v>0.2011271717257202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="6">
+        <v>20.112717172572019</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -2816,11 +2868,13 @@
       <c r="X30" s="2">
         <v>9919.54538445865</v>
       </c>
-      <c r="Y30" s="2">
-        <v>0.2211693613878713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="6">
+        <v>22.116936138787128</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -2893,11 +2947,13 @@
       <c r="X31" s="2">
         <v>3883.695662675721</v>
       </c>
-      <c r="Y31" s="2">
-        <v>0.18433493789484401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="6">
+        <v>18.433493789484402</v>
+      </c>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -2970,11 +3026,13 @@
       <c r="X32" s="2">
         <v>6770.5797962406168</v>
       </c>
-      <c r="Y32" s="2">
-        <v>0.20722469087265999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="6">
+        <v>20.722469087265999</v>
+      </c>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>3</v>
       </c>
@@ -3047,11 +3105,13 @@
       <c r="X33" s="2">
         <v>9738.12123750303</v>
       </c>
-      <c r="Y33" s="2">
-        <v>0.22496407705935631</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="6">
+        <v>22.496407705935631</v>
+      </c>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -3124,11 +3184,13 @@
       <c r="X34" s="2">
         <v>3613.801918434302</v>
       </c>
-      <c r="Y34" s="2">
-        <v>0.18945295832982359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="6">
+        <v>18.94529583298236</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -3201,11 +3263,13 @@
       <c r="X35" s="2">
         <v>5534.1430376702747</v>
       </c>
-      <c r="Y35" s="2">
-        <v>0.212825788776067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="6">
+        <v>21.282578877606699</v>
+      </c>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -3278,11 +3342,13 @@
       <c r="X36" s="2">
         <v>9053.9593794220746</v>
       </c>
-      <c r="Y36" s="2">
-        <v>0.22374238569223731</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="6">
+        <v>22.374238569223731</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -3355,11 +3421,13 @@
       <c r="X37" s="2">
         <v>3159.9398823895822</v>
       </c>
-      <c r="Y37" s="2">
-        <v>0.1927005286796642</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="6">
+        <v>19.27005286796642</v>
+      </c>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -3432,11 +3500,13 @@
       <c r="X38" s="2">
         <v>5992.0819958409393</v>
       </c>
-      <c r="Y38" s="2">
-        <v>0.20858297432887429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="6">
+        <v>20.858297432887429</v>
+      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -3509,11 +3579,13 @@
       <c r="X39" s="2">
         <v>9452.5047395137408</v>
       </c>
-      <c r="Y39" s="2">
-        <v>0.22995035214470391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="6">
+        <v>22.995035214470391</v>
+      </c>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -3586,11 +3658,13 @@
       <c r="X40" s="2">
         <v>3725.7477159819682</v>
       </c>
-      <c r="Y40" s="2">
-        <v>0.1953729099153467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="6">
+        <v>19.537290991534668</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -3663,11 +3737,13 @@
       <c r="X41" s="2">
         <v>6002.7133722597309</v>
       </c>
-      <c r="Y41" s="2">
-        <v>0.21049146026822479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="6">
+        <v>21.049146026822481</v>
+      </c>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -3740,11 +3816,13 @@
       <c r="X42" s="2">
         <v>9255.9892084746716</v>
       </c>
-      <c r="Y42" s="2">
-        <v>0.22892142684484451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y42" s="6">
+        <v>22.892142684484451</v>
+      </c>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -3817,11 +3895,13 @@
       <c r="X43" s="2">
         <v>3537.3209838244361</v>
       </c>
-      <c r="Y43" s="2">
-        <v>0.19433234924262499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y43" s="6">
+        <v>19.4332349242625</v>
+      </c>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -3894,11 +3974,13 @@
       <c r="X44" s="2">
         <v>6007.1114422411028</v>
       </c>
-      <c r="Y44" s="2">
-        <v>0.212546915216375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y44" s="6">
+        <v>21.254691521637501</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -3971,11 +4053,13 @@
       <c r="X45" s="2">
         <v>9404.7695852884044</v>
       </c>
-      <c r="Y45" s="2">
-        <v>0.2293420559083644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y45" s="6">
+        <v>22.934205590836442</v>
+      </c>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -4048,11 +4132,13 @@
       <c r="X46" s="2">
         <v>3098.872810398921</v>
       </c>
-      <c r="Y46" s="2">
-        <v>0.19158729761788429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y46" s="6">
+        <v>19.158729761788429</v>
+      </c>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -4125,11 +4211,13 @@
       <c r="X47" s="2">
         <v>6303.7717013375841</v>
       </c>
-      <c r="Y47" s="2">
-        <v>0.2114945158847254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y47" s="6">
+        <v>21.149451588472541</v>
+      </c>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -4202,11 +4290,13 @@
       <c r="X48" s="2">
         <v>9646.7162389861223</v>
       </c>
-      <c r="Y48" s="2">
-        <v>0.2284023826094212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y48" s="6">
+        <v>22.840238260942119</v>
+      </c>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -4279,11 +4369,13 @@
       <c r="X49" s="2">
         <v>3633.842524589214</v>
       </c>
-      <c r="Y49" s="2">
-        <v>0.1958655446359521</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y49" s="6">
+        <v>19.58655446359521</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -4356,11 +4448,13 @@
       <c r="X50" s="2">
         <v>5733.5115055403967</v>
       </c>
-      <c r="Y50" s="2">
-        <v>0.2091760557848053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y50" s="6">
+        <v>20.917605578480529</v>
+      </c>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -4433,11 +4527,13 @@
       <c r="X51" s="2">
         <v>8972.113277531118</v>
       </c>
-      <c r="Y51" s="2">
-        <v>0.2286317454057912</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="6">
+        <v>22.86317454057912</v>
+      </c>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -4510,11 +4606,13 @@
       <c r="X52" s="2">
         <v>3436.7105850147868</v>
       </c>
-      <c r="Y52" s="2">
-        <v>0.19109971858181651</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y52" s="6">
+        <v>19.109971858181652</v>
+      </c>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -4587,11 +4685,13 @@
       <c r="X53" s="2">
         <v>6219.7488292408871</v>
       </c>
-      <c r="Y53" s="2">
-        <v>0.22511888274419009</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y53" s="6">
+        <v>22.511888274419007</v>
+      </c>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -4664,11 +4764,13 @@
       <c r="X54" s="2">
         <v>10384.53974648736</v>
       </c>
-      <c r="Y54" s="2">
-        <v>0.25892443102013168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y54" s="6">
+        <v>25.892443102013168</v>
+      </c>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -4741,11 +4843,13 @@
       <c r="X55" s="2">
         <v>3890.7781835213491</v>
       </c>
-      <c r="Y55" s="2">
-        <v>0.20816586289275291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y55" s="6">
+        <v>20.816586289275289</v>
+      </c>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4818,11 +4922,13 @@
       <c r="X56" s="2">
         <v>5931.2299997108021</v>
       </c>
-      <c r="Y56" s="2">
-        <v>0.2191512513494886</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y56" s="6">
+        <v>21.915125134948859</v>
+      </c>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -4895,11 +5001,13 @@
       <c r="X57" s="2">
         <v>9541.6230725712194</v>
       </c>
-      <c r="Y57" s="2">
-        <v>0.24797232830762511</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y57" s="6">
+        <v>24.797232830762511</v>
+      </c>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -4972,11 +5080,13 @@
       <c r="X58" s="2">
         <v>3606.8111285477689</v>
       </c>
-      <c r="Y58" s="2">
-        <v>0.20118077200946269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y58" s="6">
+        <v>20.118077200946267</v>
+      </c>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -5049,11 +5159,13 @@
       <c r="X59" s="2">
         <v>5785.6881400128796</v>
       </c>
-      <c r="Y59" s="2">
-        <v>0.21519782231620091</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y59" s="6">
+        <v>21.519782231620091</v>
+      </c>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="6"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -5126,11 +5238,13 @@
       <c r="X60" s="2">
         <v>9446.5468926169087</v>
       </c>
-      <c r="Y60" s="2">
-        <v>0.2491597186609168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y60" s="6">
+        <v>24.915971866091681</v>
+      </c>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -5203,11 +5317,13 @@
       <c r="X61" s="2">
         <v>3654.706867026393</v>
       </c>
-      <c r="Y61" s="2">
-        <v>0.2040723298735819</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y61" s="6">
+        <v>20.407232987358189</v>
+      </c>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="6"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -5280,11 +5396,13 @@
       <c r="X62" s="2">
         <v>5669.4887687166292</v>
       </c>
-      <c r="Y62" s="2">
-        <v>0.21482456377460821</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y62" s="6">
+        <v>21.482456377460821</v>
+      </c>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="6"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -5357,11 +5475,13 @@
       <c r="X63" s="2">
         <v>9582.5248173261898</v>
       </c>
-      <c r="Y63" s="2">
-        <v>0.25080875812561187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y63" s="6">
+        <v>25.080875812561189</v>
+      </c>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="6"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -5434,11 +5554,13 @@
       <c r="X64" s="2">
         <v>3546.0434800841081</v>
       </c>
-      <c r="Y64" s="2">
-        <v>0.20103985427817361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y64" s="6">
+        <v>20.10398542781736</v>
+      </c>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="6"/>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>13</v>
       </c>
@@ -5511,11 +5633,13 @@
       <c r="X65" s="2">
         <v>6984.2460723429576</v>
       </c>
-      <c r="Y65" s="2">
-        <v>0.21098854111406601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y65" s="6">
+        <v>21.098854111406602</v>
+      </c>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="6"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>13</v>
       </c>
@@ -5588,11 +5712,13 @@
       <c r="X66" s="2">
         <v>11821.4401161773</v>
       </c>
-      <c r="Y66" s="2">
-        <v>0.25047679327433719</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y66" s="6">
+        <v>25.04767932743372</v>
+      </c>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>13</v>
       </c>
@@ -5665,11 +5791,13 @@
       <c r="X67" s="2">
         <v>4196.9263246245091</v>
       </c>
-      <c r="Y67" s="2">
-        <v>0.19558385273048651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y67" s="6">
+        <v>19.55838527304865</v>
+      </c>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="6"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>13</v>
       </c>
@@ -5742,11 +5870,13 @@
       <c r="X68" s="2">
         <v>5326.6342746599403</v>
       </c>
-      <c r="Y68" s="2">
-        <v>0.21054306506689621</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y68" s="6">
+        <v>21.05430650668962</v>
+      </c>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>13</v>
       </c>
@@ -5819,11 +5949,13 @@
       <c r="X69" s="2">
         <v>8074.4441130359291</v>
       </c>
-      <c r="Y69" s="2">
-        <v>0.2461336557536119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="6">
+        <v>24.61336557536119</v>
+      </c>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>13</v>
       </c>
@@ -5896,11 +6028,13 @@
       <c r="X70" s="2">
         <v>3279.1077371779329</v>
       </c>
-      <c r="Y70" s="2">
-        <v>0.1913269001904998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y70" s="6">
+        <v>19.132690019049981</v>
+      </c>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="6"/>
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>13</v>
       </c>
@@ -5973,11 +6107,13 @@
       <c r="X71" s="2">
         <v>6847.2222991484396</v>
       </c>
-      <c r="Y71" s="2">
-        <v>0.2158323269937503</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y71" s="6">
+        <v>21.583232699375028</v>
+      </c>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>13</v>
       </c>
@@ -6050,11 +6186,13 @@
       <c r="X72" s="2">
         <v>10867.74874761393</v>
       </c>
-      <c r="Y72" s="2">
-        <v>0.25868336803662989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y72" s="6">
+        <v>25.868336803662988</v>
+      </c>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="6"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>13</v>
       </c>
@@ -6127,11 +6265,13 @@
       <c r="X73" s="2">
         <v>4077.6401888766359</v>
       </c>
-      <c r="Y73" s="2">
-        <v>0.20134416689223861</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y73" s="6">
+        <v>20.134416689223862</v>
+      </c>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>13</v>
       </c>
@@ -6204,11 +6344,13 @@
       <c r="X74" s="2">
         <v>6264.3139111590353</v>
       </c>
-      <c r="Y74" s="2">
-        <v>0.21092271407158539</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y74" s="6">
+        <v>21.092271407158538</v>
+      </c>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>13</v>
       </c>
@@ -6281,11 +6423,13 @@
       <c r="X75" s="2">
         <v>10257.48551662094</v>
       </c>
-      <c r="Y75" s="2">
-        <v>0.25598532381898298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y75" s="6">
+        <v>25.598532381898298</v>
+      </c>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>13</v>
       </c>
@@ -6358,11 +6502,13 @@
       <c r="X76" s="2">
         <v>4089.9390946360759</v>
       </c>
-      <c r="Y76" s="2">
-        <v>0.19876236243209419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y76" s="6">
+        <v>19.876236243209419</v>
+      </c>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="6"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>12</v>
       </c>
@@ -6435,11 +6581,13 @@
       <c r="X77" s="2">
         <v>6119.6878977640081</v>
       </c>
-      <c r="Y77" s="2">
-        <v>0.21160227040636309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y77" s="6">
+        <v>21.160227040636308</v>
+      </c>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="6"/>
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -6512,11 +6660,13 @@
       <c r="X78" s="2">
         <v>10508.06862450466</v>
       </c>
-      <c r="Y78" s="2">
-        <v>0.25689907204751128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y78" s="6">
+        <v>25.68990720475113</v>
+      </c>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="6"/>
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>12</v>
       </c>
@@ -6589,11 +6739,13 @@
       <c r="X79" s="2">
         <v>3867.9495923867348</v>
       </c>
-      <c r="Y79" s="2">
-        <v>0.1974108420379686</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y79" s="6">
+        <v>19.741084203796859</v>
+      </c>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="6"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>12</v>
       </c>
@@ -6666,11 +6818,13 @@
       <c r="X80" s="2">
         <v>5176.3455011105916</v>
       </c>
-      <c r="Y80" s="2">
-        <v>0.20410901679373039</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y80" s="6">
+        <v>20.41090167937304</v>
+      </c>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="6"/>
+    </row>
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>12</v>
       </c>
@@ -6743,11 +6897,13 @@
       <c r="X81" s="2">
         <v>8946.4320895057008</v>
       </c>
-      <c r="Y81" s="2">
-        <v>0.25094603965647078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y81" s="6">
+        <v>25.094603965647078</v>
+      </c>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="6"/>
+    </row>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>12</v>
       </c>
@@ -6820,11 +6976,13 @@
       <c r="X82" s="2">
         <v>3490.961350525999</v>
       </c>
-      <c r="Y82" s="2">
-        <v>0.1942614256045069</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y82" s="6">
+        <v>19.426142560450689</v>
+      </c>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="6"/>
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>12</v>
       </c>
@@ -6897,11 +7055,13 @@
       <c r="X83" s="2">
         <v>5854.2495135256886</v>
       </c>
-      <c r="Y83" s="2">
-        <v>0.20734530388660921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y83" s="6">
+        <v>20.734530388660922</v>
+      </c>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="6"/>
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>12</v>
       </c>
@@ -6974,11 +7134,13 @@
       <c r="X84" s="2">
         <v>9442.20034800957</v>
       </c>
-      <c r="Y84" s="2">
-        <v>0.24078750655086659</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y84" s="6">
+        <v>24.078750655086658</v>
+      </c>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="6"/>
+    </row>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>12</v>
       </c>
@@ -7051,11 +7213,13 @@
       <c r="X85" s="2">
         <v>3688.6221359542051</v>
       </c>
-      <c r="Y85" s="2">
-        <v>0.18813453512157849</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y85" s="6">
+        <v>18.813453512157849</v>
+      </c>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="6"/>
+    </row>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>12</v>
       </c>
@@ -7128,11 +7292,13 @@
       <c r="X86" s="2">
         <v>6302.77459237312</v>
       </c>
-      <c r="Y86" s="2">
-        <v>0.2118037904379122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y86" s="6">
+        <v>21.18037904379122</v>
+      </c>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="6"/>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>12</v>
       </c>
@@ -7205,11 +7371,13 @@
       <c r="X87" s="2">
         <v>10204.198169385059</v>
       </c>
-      <c r="Y87" s="2">
-        <v>0.24531445436107599</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y87" s="6">
+        <v>24.5314454361076</v>
+      </c>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="6"/>
+    </row>
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>12</v>
       </c>
@@ -7282,11 +7450,13 @@
       <c r="X88" s="2">
         <v>3853.9982527718089</v>
       </c>
-      <c r="Y88" s="2">
-        <v>0.1939733476660179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y88" s="6">
+        <v>19.397334766601791</v>
+      </c>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="6"/>
+    </row>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>11</v>
       </c>
@@ -7359,11 +7529,13 @@
       <c r="X89" s="2">
         <v>6337.4402812455291</v>
       </c>
-      <c r="Y89" s="2">
-        <v>0.20983296579783231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y89" s="6">
+        <v>20.983296579783232</v>
+      </c>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="6"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>11</v>
       </c>
@@ -7436,11 +7608,13 @@
       <c r="X90" s="2">
         <v>10019.434153985771</v>
       </c>
-      <c r="Y90" s="2">
-        <v>0.24398250030404001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y90" s="6">
+        <v>24.398250030404</v>
+      </c>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="6"/>
+    </row>
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>11</v>
       </c>
@@ -7513,11 +7687,13 @@
       <c r="X91" s="2">
         <v>3945.8514774000741</v>
       </c>
-      <c r="Y91" s="2">
-        <v>0.1955272560388569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y91" s="6">
+        <v>19.55272560388569</v>
+      </c>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="6"/>
+    </row>
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>11</v>
       </c>
@@ -7590,11 +7766,13 @@
       <c r="X92" s="2">
         <v>6334.4773749282303</v>
       </c>
-      <c r="Y92" s="2">
-        <v>0.20908681350255179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y92" s="6">
+        <v>20.908681350255179</v>
+      </c>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="6"/>
+    </row>
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>11</v>
       </c>
@@ -7667,11 +7845,13 @@
       <c r="X93" s="2">
         <v>9892.4274125123411</v>
       </c>
-      <c r="Y93" s="2">
-        <v>0.24304339022803231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y93" s="6">
+        <v>24.30433902280323</v>
+      </c>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="6"/>
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>11</v>
       </c>
@@ -7744,11 +7924,13 @@
       <c r="X94" s="2">
         <v>3934.0321637403172</v>
       </c>
-      <c r="Y94" s="2">
-        <v>0.19810149238293989</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y94" s="6">
+        <v>19.810149238293988</v>
+      </c>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="6"/>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>11</v>
       </c>
@@ -7821,11 +8003,13 @@
       <c r="X95" s="2">
         <v>6119.1263029360343</v>
       </c>
-      <c r="Y95" s="2">
-        <v>0.21478448820240201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y95" s="6">
+        <v>21.4784488202402</v>
+      </c>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="6"/>
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>11</v>
       </c>
@@ -7898,11 +8082,13 @@
       <c r="X96" s="2">
         <v>9892.4421068779466</v>
       </c>
-      <c r="Y96" s="2">
-        <v>0.24792373420009059</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y96" s="6">
+        <v>24.79237342000906</v>
+      </c>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="6"/>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>11</v>
       </c>
@@ -7975,11 +8161,13 @@
       <c r="X97" s="2">
         <v>3747.855506171024</v>
       </c>
-      <c r="Y97" s="2">
-        <v>0.19556831306804789</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y97" s="6">
+        <v>19.556831306804789</v>
+      </c>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="6"/>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>11</v>
       </c>
@@ -8052,11 +8240,13 @@
       <c r="X98" s="2">
         <v>6436.2090363642274</v>
       </c>
-      <c r="Y98" s="2">
-        <v>0.21457942619418369</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y98" s="6">
+        <v>21.457942619418368</v>
+      </c>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="6"/>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>11</v>
       </c>
@@ -8129,11 +8319,13 @@
       <c r="X99" s="2">
         <v>8874.2770500172937</v>
       </c>
-      <c r="Y99" s="2">
-        <v>0.24006216020030241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y99" s="6">
+        <v>24.006216020030241</v>
+      </c>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="6"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>11</v>
       </c>
@@ -8206,11 +8398,13 @@
       <c r="X100" s="2">
         <v>3913.284826864829</v>
       </c>
-      <c r="Y100" s="2">
-        <v>0.19767439223790881</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y100" s="6">
+        <v>19.76743922379088</v>
+      </c>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="6"/>
+    </row>
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>10</v>
       </c>
@@ -8283,11 +8477,13 @@
       <c r="X101" s="2">
         <v>6419.4150475233319</v>
       </c>
-      <c r="Y101" s="2">
-        <v>0.21566209079339069</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y101" s="6">
+        <v>21.566209079339068</v>
+      </c>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="6"/>
+    </row>
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>10</v>
       </c>
@@ -8360,11 +8556,13 @@
       <c r="X102" s="2">
         <v>9632.6532038674195</v>
       </c>
-      <c r="Y102" s="2">
-        <v>0.24793089302006599</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y102" s="6">
+        <v>24.793089302006599</v>
+      </c>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="6"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>10</v>
       </c>
@@ -8437,11 +8635,13 @@
       <c r="X103" s="2">
         <v>3621.8156547012982</v>
       </c>
-      <c r="Y103" s="2">
-        <v>0.201669209730578</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y103" s="6">
+        <v>20.166920973057799</v>
+      </c>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="6"/>
+    </row>
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>10</v>
       </c>
@@ -8514,11 +8714,13 @@
       <c r="X104" s="2">
         <v>6755.621037672463</v>
       </c>
-      <c r="Y104" s="2">
-        <v>0.2112856853947446</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y104" s="6">
+        <v>21.128568539474461</v>
+      </c>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="6"/>
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>10</v>
       </c>
@@ -8591,11 +8793,13 @@
       <c r="X105" s="2">
         <v>9145.7532641013586</v>
       </c>
-      <c r="Y105" s="2">
-        <v>0.24027784455819731</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y105" s="6">
+        <v>24.027784455819731</v>
+      </c>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="6"/>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>10</v>
       </c>
@@ -8668,11 +8872,13 @@
       <c r="X106" s="2">
         <v>3723.5610095750831</v>
       </c>
-      <c r="Y106" s="2">
-        <v>0.19543307698919279</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y106" s="6">
+        <v>19.543307698919278</v>
+      </c>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="6"/>
+    </row>
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>10</v>
       </c>
@@ -8745,11 +8951,13 @@
       <c r="X107" s="2">
         <v>5902.2246244138651</v>
       </c>
-      <c r="Y107" s="2">
-        <v>0.21430411451921799</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y107" s="6">
+        <v>21.430411451921799</v>
+      </c>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="6"/>
+    </row>
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>10</v>
       </c>
@@ -8822,11 +9030,13 @@
       <c r="X108" s="2">
         <v>8810.1209661240919</v>
       </c>
-      <c r="Y108" s="2">
-        <v>0.2377244006883954</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y108" s="6">
+        <v>23.77244006883954</v>
+      </c>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="6"/>
+    </row>
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>10</v>
       </c>
@@ -8899,11 +9109,13 @@
       <c r="X109" s="2">
         <v>3568.971138000185</v>
       </c>
-      <c r="Y109" s="2">
-        <v>0.1928123021618591</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y109" s="6">
+        <v>19.281230216185911</v>
+      </c>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="6"/>
+    </row>
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>10</v>
       </c>
@@ -8976,11 +9188,13 @@
       <c r="X110" s="2">
         <v>6712.7254311104334</v>
       </c>
-      <c r="Y110" s="2">
-        <v>0.21311680539383879</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y110" s="6">
+        <v>21.311680539383879</v>
+      </c>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="6"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>10</v>
       </c>
@@ -9053,11 +9267,13 @@
       <c r="X111" s="2">
         <v>9015.4338969621913</v>
       </c>
-      <c r="Y111" s="2">
-        <v>0.23783734599914819</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y111" s="6">
+        <v>23.783734599914819</v>
+      </c>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="6"/>
+    </row>
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>10</v>
       </c>
@@ -9130,11 +9346,13 @@
       <c r="X112" s="2">
         <v>3688.9882644818831</v>
       </c>
-      <c r="Y112" s="2">
-        <v>0.19698809974933909</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y112" s="6">
+        <v>19.698809974933909</v>
+      </c>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="6"/>
+    </row>
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>9</v>
       </c>
@@ -9207,11 +9425,13 @@
       <c r="X113" s="2">
         <v>5735.3753805981014</v>
       </c>
-      <c r="Y113" s="2">
-        <v>0.2157479033421659</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y113" s="6">
+        <v>21.574790334216591</v>
+      </c>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="6"/>
+    </row>
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>9</v>
       </c>
@@ -9284,11 +9504,13 @@
       <c r="X114" s="2">
         <v>8404.8287779780258</v>
       </c>
-      <c r="Y114" s="2">
-        <v>0.23321992901362271</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y114" s="6">
+        <v>23.321992901362272</v>
+      </c>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="6"/>
+    </row>
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>9</v>
       </c>
@@ -9361,11 +9583,13 @@
       <c r="X115" s="2">
         <v>3713.2698120149398</v>
       </c>
-      <c r="Y115" s="2">
-        <v>0.19375347311728619</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y115" s="6">
+        <v>19.375347311728618</v>
+      </c>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="6"/>
+    </row>
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>9</v>
       </c>
@@ -9438,11 +9662,13 @@
       <c r="X116" s="2">
         <v>6269.4817163519629</v>
       </c>
-      <c r="Y116" s="2">
-        <v>0.21290782150641721</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y116" s="6">
+        <v>21.290782150641721</v>
+      </c>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="6"/>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>9</v>
       </c>
@@ -9515,11 +9741,13 @@
       <c r="X117" s="2">
         <v>9098.4026737252207</v>
       </c>
-      <c r="Y117" s="2">
-        <v>0.23442343928965009</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y117" s="6">
+        <v>23.442343928965009</v>
+      </c>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="6"/>
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>9</v>
       </c>
@@ -9592,11 +9820,13 @@
       <c r="X118" s="2">
         <v>3757.3581681584528</v>
       </c>
-      <c r="Y118" s="2">
-        <v>0.1933995215225095</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y118" s="6">
+        <v>19.339952152250952</v>
+      </c>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="6"/>
+    </row>
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>9</v>
       </c>
@@ -9669,11 +9899,13 @@
       <c r="X119" s="2">
         <v>5891.6096353106559</v>
       </c>
-      <c r="Y119" s="2">
-        <v>0.21352484802056579</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y119" s="6">
+        <v>21.35248480205658</v>
+      </c>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="6"/>
+    </row>
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>9</v>
       </c>
@@ -9746,11 +9978,13 @@
       <c r="X120" s="2">
         <v>9274.3170304820287</v>
       </c>
-      <c r="Y120" s="2">
-        <v>0.23435112883393269</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y120" s="6">
+        <v>23.43511288339327</v>
+      </c>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="6"/>
+    </row>
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>9</v>
       </c>
@@ -9823,11 +10057,13 @@
       <c r="X121" s="2">
         <v>3856.0135653987418</v>
       </c>
-      <c r="Y121" s="2">
-        <v>0.19747076308143141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y121" s="6">
+        <v>19.747076308143143</v>
+      </c>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="6"/>
+    </row>
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>9</v>
       </c>
@@ -9900,11 +10136,13 @@
       <c r="X122" s="2">
         <v>6303.7310608397556</v>
       </c>
-      <c r="Y122" s="2">
-        <v>0.2133097949661531</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y122" s="6">
+        <v>21.33097949661531</v>
+      </c>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="6"/>
+    </row>
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>9</v>
       </c>
@@ -9977,11 +10215,13 @@
       <c r="X123" s="2">
         <v>8719.9300956135849</v>
       </c>
-      <c r="Y123" s="2">
-        <v>0.23592565294337431</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y123" s="6">
+        <v>23.59256529433743</v>
+      </c>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="6"/>
+    </row>
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>9</v>
       </c>
@@ -10054,11 +10294,13 @@
       <c r="X124" s="2">
         <v>3613.6715465433449</v>
       </c>
-      <c r="Y124" s="2">
-        <v>0.19956325949134601</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y124" s="6">
+        <v>19.956325949134602</v>
+      </c>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="6"/>
+    </row>
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>8</v>
       </c>
@@ -10131,11 +10373,13 @@
       <c r="X125" s="2">
         <v>6269.9489282972472</v>
       </c>
-      <c r="Y125" s="2">
-        <v>0.21276155303955421</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y125" s="6">
+        <v>21.27615530395542</v>
+      </c>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="6"/>
+    </row>
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>8</v>
       </c>
@@ -10208,11 +10452,13 @@
       <c r="X126" s="2">
         <v>8923.1356893638804</v>
       </c>
-      <c r="Y126" s="2">
-        <v>0.23505596262985451</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y126" s="6">
+        <v>23.505596262985449</v>
+      </c>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="6"/>
+    </row>
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>8</v>
       </c>
@@ -10285,11 +10531,13 @@
       <c r="X127" s="2">
         <v>3627.4913431435348</v>
       </c>
-      <c r="Y127" s="2">
-        <v>0.20044710963936199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y127" s="6">
+        <v>20.0447109639362</v>
+      </c>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="6"/>
+    </row>
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>8</v>
       </c>
@@ -10362,11 +10610,13 @@
       <c r="X128" s="2">
         <v>6582.3971663203674</v>
       </c>
-      <c r="Y128" s="2">
-        <v>0.22027790307287429</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y128" s="6">
+        <v>22.027790307287429</v>
+      </c>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="6"/>
+    </row>
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>8</v>
       </c>
@@ -10439,11 +10689,13 @@
       <c r="X129" s="2">
         <v>9579.7230981799712</v>
       </c>
-      <c r="Y129" s="2">
-        <v>0.23557302453964729</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y129" s="6">
+        <v>23.557302453964731</v>
+      </c>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="6"/>
+    </row>
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>8</v>
       </c>
@@ -10516,11 +10768,13 @@
       <c r="X130" s="2">
         <v>3555.335031134463</v>
       </c>
-      <c r="Y130" s="2">
-        <v>0.200106208456376</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y130" s="6">
+        <v>20.0106208456376</v>
+      </c>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="6"/>
+    </row>
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>8</v>
       </c>
@@ -10593,11 +10847,13 @@
       <c r="X131" s="2">
         <v>6509.9055473041099</v>
       </c>
-      <c r="Y131" s="2">
-        <v>0.21542190205090939</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y131" s="6">
+        <v>21.54219020509094</v>
+      </c>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="6"/>
+    </row>
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>8</v>
       </c>
@@ -10670,11 +10926,13 @@
       <c r="X132" s="2">
         <v>9286.4001886535934</v>
       </c>
-      <c r="Y132" s="2">
-        <v>0.23213835781447359</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y132" s="6">
+        <v>23.213835781447358</v>
+      </c>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="6"/>
+    </row>
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>8</v>
       </c>
@@ -10747,11 +11005,13 @@
       <c r="X133" s="2">
         <v>3677.9554393079188</v>
       </c>
-      <c r="Y133" s="2">
-        <v>0.19518119696175501</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y133" s="6">
+        <v>19.5181196961755</v>
+      </c>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="6"/>
+    </row>
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>8</v>
       </c>
@@ -10824,11 +11084,13 @@
       <c r="X134" s="2">
         <v>6494.7669587460032</v>
       </c>
-      <c r="Y134" s="2">
-        <v>0.21541229830270919</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y134" s="6">
+        <v>21.541229830270918</v>
+      </c>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="6"/>
+    </row>
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>8</v>
       </c>
@@ -10901,11 +11163,13 @@
       <c r="X135" s="2">
         <v>9034.6126673300205</v>
       </c>
-      <c r="Y135" s="2">
-        <v>0.23337015067369041</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y135" s="6">
+        <v>23.337015067369041</v>
+      </c>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="6"/>
+    </row>
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>8</v>
       </c>
@@ -10978,11 +11242,13 @@
       <c r="X136" s="2">
         <v>3289.8698146875922</v>
       </c>
-      <c r="Y136" s="2">
-        <v>0.19341435195324441</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y136" s="6">
+        <v>19.34143519532444</v>
+      </c>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="6"/>
+    </row>
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>7</v>
       </c>
@@ -11055,11 +11321,13 @@
       <c r="X137" s="2">
         <v>6460.9710864481931</v>
       </c>
-      <c r="Y137" s="2">
-        <v>0.21645048053991231</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y137" s="6">
+        <v>21.645048053991232</v>
+      </c>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="6"/>
+    </row>
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>7</v>
       </c>
@@ -11132,11 +11400,13 @@
       <c r="X138" s="2">
         <v>9060.9573547797281</v>
       </c>
-      <c r="Y138" s="2">
-        <v>0.2384852196840517</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y138" s="6">
+        <v>23.848521968405169</v>
+      </c>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="6"/>
+    </row>
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>7</v>
       </c>
@@ -11209,11 +11479,13 @@
       <c r="X139" s="2">
         <v>3473.430018136366</v>
       </c>
-      <c r="Y139" s="2">
-        <v>0.19906685813249719</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y139" s="6">
+        <v>19.90668581324972</v>
+      </c>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="6"/>
+    </row>
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>7</v>
       </c>
@@ -11286,11 +11558,13 @@
       <c r="X140" s="2">
         <v>6229.4563724294276</v>
       </c>
-      <c r="Y140" s="2">
-        <v>0.2174578519932093</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y140" s="6">
+        <v>21.745785199320931</v>
+      </c>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="6"/>
+    </row>
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>7</v>
       </c>
@@ -11363,11 +11637,13 @@
       <c r="X141" s="2">
         <v>9328.3637413992055</v>
       </c>
-      <c r="Y141" s="2">
-        <v>0.23872061542372941</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y141" s="6">
+        <v>23.87206154237294</v>
+      </c>
+      <c r="Z141" s="2"/>
+      <c r="AA141" s="6"/>
+    </row>
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>7</v>
       </c>
@@ -11440,11 +11716,13 @@
       <c r="X142" s="2">
         <v>3764.8637796380881</v>
       </c>
-      <c r="Y142" s="2">
-        <v>0.2000435584513936</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y142" s="6">
+        <v>20.004355845139361</v>
+      </c>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="6"/>
+    </row>
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>7</v>
       </c>
@@ -11517,11 +11795,13 @@
       <c r="X143" s="2">
         <v>6712.5299632181668</v>
       </c>
-      <c r="Y143" s="2">
-        <v>0.21869598683555949</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y143" s="6">
+        <v>21.869598683555949</v>
+      </c>
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="6"/>
+    </row>
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>7</v>
       </c>
@@ -11594,11 +11874,13 @@
       <c r="X144" s="2">
         <v>9942.09573123072</v>
       </c>
-      <c r="Y144" s="2">
-        <v>0.24040367046663111</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y144" s="6">
+        <v>24.040367046663111</v>
+      </c>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="6"/>
+    </row>
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>7</v>
       </c>
@@ -11671,11 +11953,13 @@
       <c r="X145" s="2">
         <v>3624.797032517447</v>
       </c>
-      <c r="Y145" s="2">
-        <v>0.19714909344506179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y145" s="6">
+        <v>19.714909344506179</v>
+      </c>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="6"/>
+    </row>
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>7</v>
       </c>
@@ -11748,11 +12032,13 @@
       <c r="X146" s="2">
         <v>6564.0856574927111</v>
       </c>
-      <c r="Y146" s="2">
-        <v>0.21611460566983001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y146" s="6">
+        <v>21.611460566983002</v>
+      </c>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="6"/>
+    </row>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>7</v>
       </c>
@@ -11825,11 +12111,13 @@
       <c r="X147" s="2">
         <v>9899.8375695098603</v>
       </c>
-      <c r="Y147" s="2">
-        <v>0.2457929626957093</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y147" s="6">
+        <v>24.579296269570929</v>
+      </c>
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="6"/>
+    </row>
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>7</v>
       </c>
@@ -11902,11 +12190,13 @@
       <c r="X148" s="2">
         <v>3825.9454098632841</v>
       </c>
-      <c r="Y148" s="2">
-        <v>0.20144877804057379</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y148" s="6">
+        <v>20.14487780405738</v>
+      </c>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="6"/>
+    </row>
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>6</v>
       </c>
@@ -11979,11 +12269,13 @@
       <c r="X149" s="2">
         <v>6792.4337981273547</v>
       </c>
-      <c r="Y149" s="2">
-        <v>0.21760501119919409</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y149" s="6">
+        <v>21.760501119919411</v>
+      </c>
+      <c r="Z149" s="2"/>
+      <c r="AA149" s="6"/>
+    </row>
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>6</v>
       </c>
@@ -12056,11 +12348,13 @@
       <c r="X150" s="2">
         <v>9933.006911351069</v>
       </c>
-      <c r="Y150" s="2">
-        <v>0.24602380460950821</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y150" s="6">
+        <v>24.602380460950819</v>
+      </c>
+      <c r="Z150" s="2"/>
+      <c r="AA150" s="6"/>
+    </row>
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>6</v>
       </c>
@@ -12133,11 +12427,13 @@
       <c r="X151" s="2">
         <v>3783.1253834281652</v>
       </c>
-      <c r="Y151" s="2">
-        <v>0.20202420063057261</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y151" s="6">
+        <v>20.202420063057261</v>
+      </c>
+      <c r="Z151" s="2"/>
+      <c r="AA151" s="6"/>
+    </row>
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>6</v>
       </c>
@@ -12210,11 +12506,13 @@
       <c r="X152" s="2">
         <v>6564.8133532159191</v>
       </c>
-      <c r="Y152" s="2">
-        <v>0.21938295505432071</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y152" s="6">
+        <v>21.93829550543207</v>
+      </c>
+      <c r="Z152" s="2"/>
+      <c r="AA152" s="6"/>
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>6</v>
       </c>
@@ -12287,11 +12585,13 @@
       <c r="X153" s="2">
         <v>9634.1509009400434</v>
       </c>
-      <c r="Y153" s="2">
-        <v>0.24403365303943139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y153" s="6">
+        <v>24.40336530394314</v>
+      </c>
+      <c r="Z153" s="2"/>
+      <c r="AA153" s="6"/>
+    </row>
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>6</v>
       </c>
@@ -12364,11 +12664,13 @@
       <c r="X154" s="2">
         <v>3748.2076075010532</v>
       </c>
-      <c r="Y154" s="2">
-        <v>0.19764419937446301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y154" s="6">
+        <v>19.764419937446302</v>
+      </c>
+      <c r="Z154" s="2"/>
+      <c r="AA154" s="6"/>
+    </row>
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>6</v>
       </c>
@@ -12441,11 +12743,13 @@
       <c r="X155" s="2">
         <v>6974.2121338251627</v>
       </c>
-      <c r="Y155" s="2">
-        <v>0.21912149637223211</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y155" s="6">
+        <v>21.912149637223209</v>
+      </c>
+      <c r="Z155" s="2"/>
+      <c r="AA155" s="6"/>
+    </row>
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>6</v>
       </c>
@@ -12518,11 +12822,13 @@
       <c r="X156" s="2">
         <v>10250.472301666019</v>
       </c>
-      <c r="Y156" s="2">
-        <v>0.25594009084745589</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y156" s="6">
+        <v>25.59400908474559</v>
+      </c>
+      <c r="Z156" s="2"/>
+      <c r="AA156" s="6"/>
+    </row>
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>6</v>
       </c>
@@ -12595,11 +12901,13 @@
       <c r="X157" s="2">
         <v>3804.5245354056892</v>
       </c>
-      <c r="Y157" s="2">
-        <v>0.2010905456818371</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y157" s="6">
+        <v>20.109054568183709</v>
+      </c>
+      <c r="Z157" s="2"/>
+      <c r="AA157" s="6"/>
+    </row>
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>6</v>
       </c>
@@ -12672,11 +12980,13 @@
       <c r="X158" s="2">
         <v>6537.5728839145304</v>
       </c>
-      <c r="Y158" s="2">
-        <v>0.2209603950073665</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y158" s="6">
+        <v>22.096039500736651</v>
+      </c>
+      <c r="Z158" s="2"/>
+      <c r="AA158" s="6"/>
+    </row>
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>6</v>
       </c>
@@ -12749,11 +13059,13 @@
       <c r="X159" s="2">
         <v>10073.34354169242</v>
       </c>
-      <c r="Y159" s="2">
-        <v>0.25450274975606468</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y159" s="6">
+        <v>25.450274975606469</v>
+      </c>
+      <c r="Z159" s="2"/>
+      <c r="AA159" s="6"/>
+    </row>
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>6</v>
       </c>
@@ -12826,11 +13138,13 @@
       <c r="X160" s="2">
         <v>3968.833440704278</v>
       </c>
-      <c r="Y160" s="2">
-        <v>0.20332398932897591</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y160" s="6">
+        <v>20.33239893289759</v>
+      </c>
+      <c r="Z160" s="2"/>
+      <c r="AA160" s="6"/>
+    </row>
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>5</v>
       </c>
@@ -12903,11 +13217,13 @@
       <c r="X161" s="2">
         <v>6693.9246867258498</v>
       </c>
-      <c r="Y161" s="2">
-        <v>0.22802453341056361</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y161" s="6">
+        <v>22.80245334105636</v>
+      </c>
+      <c r="Z161" s="2"/>
+      <c r="AA161" s="6"/>
+    </row>
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>5</v>
       </c>
@@ -12980,11 +13296,13 @@
       <c r="X162" s="2">
         <v>10087.23922160411</v>
       </c>
-      <c r="Y162" s="2">
-        <v>0.2606298846688852</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y162" s="6">
+        <v>26.06298846688852</v>
+      </c>
+      <c r="Z162" s="2"/>
+      <c r="AA162" s="6"/>
+    </row>
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>5</v>
       </c>
@@ -13057,11 +13375,13 @@
       <c r="X163" s="2">
         <v>4012.742074009961</v>
       </c>
-      <c r="Y163" s="2">
-        <v>0.210729575247843</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y163" s="6">
+        <v>21.0729575247843</v>
+      </c>
+      <c r="Z163" s="2"/>
+      <c r="AA163" s="6"/>
+    </row>
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>5</v>
       </c>
@@ -13134,11 +13454,13 @@
       <c r="X164" s="2">
         <v>6343.3554223116926</v>
       </c>
-      <c r="Y164" s="2">
-        <v>0.22896488700249371</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y164" s="6">
+        <v>22.896488700249371</v>
+      </c>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="6"/>
+    </row>
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>5</v>
       </c>
@@ -13211,11 +13533,13 @@
       <c r="X165" s="2">
         <v>9447.2023820941904</v>
       </c>
-      <c r="Y165" s="2">
-        <v>0.25983319495554819</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y165" s="6">
+        <v>25.98331949555482</v>
+      </c>
+      <c r="Z165" s="2"/>
+      <c r="AA165" s="6"/>
+    </row>
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>5</v>
       </c>
@@ -13288,11 +13612,13 @@
       <c r="X166" s="2">
         <v>3922.3261276008561</v>
       </c>
-      <c r="Y166" s="2">
-        <v>0.20761111074887581</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y166" s="6">
+        <v>20.76111107488758</v>
+      </c>
+      <c r="Z166" s="2"/>
+      <c r="AA166" s="6"/>
+    </row>
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>5</v>
       </c>
@@ -13365,11 +13691,13 @@
       <c r="X167" s="2">
         <v>6214.2952950893123</v>
       </c>
-      <c r="Y167" s="2">
-        <v>0.22968533772708491</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y167" s="6">
+        <v>22.96853377270849</v>
+      </c>
+      <c r="Z167" s="2"/>
+      <c r="AA167" s="6"/>
+    </row>
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>5</v>
       </c>
@@ -13442,11 +13770,13 @@
       <c r="X168" s="2">
         <v>10114.43834581768</v>
       </c>
-      <c r="Y168" s="2">
-        <v>0.26311850188206332</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y168" s="6">
+        <v>26.311850188206332</v>
+      </c>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="6"/>
+    </row>
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>5</v>
       </c>
@@ -13519,11 +13849,13 @@
       <c r="X169" s="2">
         <v>4001.3736598081032</v>
       </c>
-      <c r="Y169" s="2">
-        <v>0.2086862785186954</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y169" s="6">
+        <v>20.86862785186954</v>
+      </c>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="6"/>
+    </row>
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>5</v>
       </c>
@@ -13596,11 +13928,13 @@
       <c r="X170" s="2">
         <v>6707.2542152734077</v>
       </c>
-      <c r="Y170" s="2">
-        <v>0.22915811978134651</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y170" s="6">
+        <v>22.915811978134652</v>
+      </c>
+      <c r="Z170" s="2"/>
+      <c r="AA170" s="6"/>
+    </row>
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>5</v>
       </c>
@@ -13673,11 +14007,13 @@
       <c r="X171" s="2">
         <v>10869.150532507059</v>
       </c>
-      <c r="Y171" s="2">
-        <v>0.2671521793285983</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y171" s="6">
+        <v>26.715217932859829</v>
+      </c>
+      <c r="Z171" s="2"/>
+      <c r="AA171" s="6"/>
+    </row>
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>5</v>
       </c>
@@ -13750,11 +14086,13 @@
       <c r="X172" s="2">
         <v>3846.601409729898</v>
       </c>
-      <c r="Y172" s="2">
-        <v>0.2125303349691392</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y172" s="6">
+        <v>21.253033496913922</v>
+      </c>
+      <c r="Z172" s="2"/>
+      <c r="AA172" s="6"/>
+    </row>
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>4</v>
       </c>
@@ -13827,11 +14165,13 @@
       <c r="X173" s="2">
         <v>6873.3395553205919</v>
       </c>
-      <c r="Y173" s="2">
-        <v>0.23231376374389601</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y173" s="6">
+        <v>23.231376374389601</v>
+      </c>
+      <c r="Z173" s="2"/>
+      <c r="AA173" s="6"/>
+    </row>
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>4</v>
       </c>
@@ -13904,11 +14244,13 @@
       <c r="X174" s="2">
         <v>10653.48550664399</v>
       </c>
-      <c r="Y174" s="2">
-        <v>0.26783769837122462</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y174" s="6">
+        <v>26.783769837122463</v>
+      </c>
+      <c r="Z174" s="2"/>
+      <c r="AA174" s="6"/>
+    </row>
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>4</v>
       </c>
@@ -13981,11 +14323,13 @@
       <c r="X175" s="2">
         <v>4078.8931805280981</v>
       </c>
-      <c r="Y175" s="2">
-        <v>0.21131993611681801</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y175" s="6">
+        <v>21.1319936116818</v>
+      </c>
+      <c r="Z175" s="2"/>
+      <c r="AA175" s="6"/>
+    </row>
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>4</v>
       </c>
@@ -14058,11 +14402,13 @@
       <c r="X176" s="2">
         <v>6786.0598157111144</v>
       </c>
-      <c r="Y176" s="2">
-        <v>0.23023978572590759</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y176" s="6">
+        <v>23.02397857259076</v>
+      </c>
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="6"/>
+    </row>
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>4</v>
       </c>
@@ -14135,11 +14481,13 @@
       <c r="X177" s="2">
         <v>10026.4473480864</v>
       </c>
-      <c r="Y177" s="2">
-        <v>0.26746044085753179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y177" s="6">
+        <v>26.74604408575318</v>
+      </c>
+      <c r="Z177" s="2"/>
+      <c r="AA177" s="6"/>
+    </row>
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>4</v>
       </c>
@@ -14212,11 +14560,13 @@
       <c r="X178" s="2">
         <v>4266.9915277562859</v>
       </c>
-      <c r="Y178" s="2">
-        <v>0.21322270887603409</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y178" s="6">
+        <v>21.322270887603409</v>
+      </c>
+      <c r="Z178" s="2"/>
+      <c r="AA178" s="6"/>
+    </row>
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>4</v>
       </c>
@@ -14289,11 +14639,13 @@
       <c r="X179" s="2">
         <v>6708.6924992343802</v>
       </c>
-      <c r="Y179" s="2">
-        <v>0.23124858239515361</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y179" s="6">
+        <v>23.124858239515362</v>
+      </c>
+      <c r="Z179" s="2"/>
+      <c r="AA179" s="6"/>
+    </row>
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>4</v>
       </c>
@@ -14366,11 +14718,13 @@
       <c r="X180" s="2">
         <v>10290.905107895351</v>
       </c>
-      <c r="Y180" s="2">
-        <v>0.26653174046223649</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y180" s="6">
+        <v>26.653174046223647</v>
+      </c>
+      <c r="Z180" s="2"/>
+      <c r="AA180" s="6"/>
+    </row>
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>4</v>
       </c>
@@ -14443,11 +14797,13 @@
       <c r="X181" s="2">
         <v>3263.6171446433918</v>
       </c>
-      <c r="Y181" s="2">
-        <v>0.21050813909637239</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y181" s="6">
+        <v>21.050813909637238</v>
+      </c>
+      <c r="Z181" s="2"/>
+      <c r="AA181" s="6"/>
+    </row>
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>4</v>
       </c>
@@ -14520,11 +14876,13 @@
       <c r="X182" s="2">
         <v>6678.2250455671256</v>
       </c>
-      <c r="Y182" s="2">
-        <v>0.2305602946144735</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y182" s="6">
+        <v>23.056029461447348</v>
+      </c>
+      <c r="Z182" s="2"/>
+      <c r="AA182" s="6"/>
+    </row>
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>4</v>
       </c>
@@ -14597,11 +14955,13 @@
       <c r="X183" s="2">
         <v>10509.28532205314</v>
       </c>
-      <c r="Y183" s="2">
-        <v>0.26678357511897899</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y183" s="6">
+        <v>26.6783575118979</v>
+      </c>
+      <c r="Z183" s="2"/>
+      <c r="AA183" s="6"/>
+    </row>
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>4</v>
       </c>
@@ -14674,11 +15034,13 @@
       <c r="X184" s="2">
         <v>3952.1162682297572</v>
       </c>
-      <c r="Y184" s="2">
-        <v>0.21445349438377129</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y184" s="6">
+        <v>21.445349438377129</v>
+      </c>
+      <c r="Z184" s="2"/>
+      <c r="AA184" s="6"/>
+    </row>
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>3</v>
       </c>
@@ -14751,11 +15113,13 @@
       <c r="X185" s="2">
         <v>6225.2197582408162</v>
       </c>
-      <c r="Y185" s="2">
-        <v>0.2233946301142857</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y185" s="6">
+        <v>22.33946301142857</v>
+      </c>
+      <c r="Z185" s="2"/>
+      <c r="AA185" s="6"/>
+    </row>
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>3</v>
       </c>
@@ -14828,11 +15192,13 @@
       <c r="X186" s="2">
         <v>8956.1613410978498</v>
       </c>
-      <c r="Y186" s="2">
-        <v>0.26023014498352243</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y186" s="6">
+        <v>26.023014498352243</v>
+      </c>
+      <c r="Z186" s="2"/>
+      <c r="AA186" s="6"/>
+    </row>
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>3</v>
       </c>
@@ -14905,11 +15271,13 @@
       <c r="X187" s="2">
         <v>3432.0121091399092</v>
       </c>
-      <c r="Y187" s="2">
-        <v>0.20577561358569391</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y187" s="6">
+        <v>20.57756135856939</v>
+      </c>
+      <c r="Z187" s="2"/>
+      <c r="AA187" s="6"/>
+    </row>
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -14982,11 +15350,13 @@
       <c r="X188" s="2">
         <v>6310.4535553293672</v>
       </c>
-      <c r="Y188" s="2">
-        <v>0.23167770533409271</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y188" s="6">
+        <v>23.167770533409271</v>
+      </c>
+      <c r="Z188" s="2"/>
+      <c r="AA188" s="6"/>
+    </row>
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>3</v>
       </c>
@@ -15059,11 +15429,13 @@
       <c r="X189" s="2">
         <v>10117.022784533679</v>
       </c>
-      <c r="Y189" s="2">
-        <v>0.27525508812750998</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y189" s="6">
+        <v>27.525508812750999</v>
+      </c>
+      <c r="Z189" s="2"/>
+      <c r="AA189" s="6"/>
+    </row>
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>3</v>
       </c>
@@ -15136,11 +15508,13 @@
       <c r="X190" s="2">
         <v>3659.9326039431548</v>
       </c>
-      <c r="Y190" s="2">
-        <v>0.2178056806638051</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y190" s="6">
+        <v>21.780568066380511</v>
+      </c>
+      <c r="Z190" s="2"/>
+      <c r="AA190" s="6"/>
+    </row>
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>3</v>
       </c>
@@ -15213,11 +15587,13 @@
       <c r="X191" s="2">
         <v>5936.2701945263589</v>
       </c>
-      <c r="Y191" s="2">
-        <v>0.22817108956831109</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y191" s="6">
+        <v>22.81710895683111</v>
+      </c>
+      <c r="Z191" s="2"/>
+      <c r="AA191" s="6"/>
+    </row>
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>3</v>
       </c>
@@ -15290,11 +15666,13 @@
       <c r="X192" s="2">
         <v>8860.3362529831029</v>
       </c>
-      <c r="Y192" s="2">
-        <v>0.26453155368422648</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y192" s="6">
+        <v>26.453155368422649</v>
+      </c>
+      <c r="Z192" s="2"/>
+      <c r="AA192" s="6"/>
+    </row>
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>3</v>
       </c>
@@ -15367,11 +15745,13 @@
       <c r="X193" s="2">
         <v>3413.7527058908472</v>
       </c>
-      <c r="Y193" s="2">
-        <v>0.21042814849209029</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y193" s="6">
+        <v>21.04281484920903</v>
+      </c>
+      <c r="Z193" s="2"/>
+      <c r="AA193" s="6"/>
+    </row>
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>3</v>
       </c>
@@ -15444,11 +15824,13 @@
       <c r="X194" s="2">
         <v>6673.103696497401</v>
       </c>
-      <c r="Y194" s="2">
-        <v>0.22380993845900549</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y194" s="6">
+        <v>22.380993845900548</v>
+      </c>
+      <c r="Z194" s="2"/>
+      <c r="AA194" s="6"/>
+    </row>
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>3</v>
       </c>
@@ -15521,11 +15903,13 @@
       <c r="X195" s="2">
         <v>9504.2056213332617</v>
       </c>
-      <c r="Y195" s="2">
-        <v>0.2686926823632475</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y195" s="6">
+        <v>26.86926823632475</v>
+      </c>
+      <c r="Z195" s="2"/>
+      <c r="AA195" s="6"/>
+    </row>
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>3</v>
       </c>
@@ -15598,11 +15982,13 @@
       <c r="X196" s="2">
         <v>3552.3104957439009</v>
       </c>
-      <c r="Y196" s="2">
-        <v>0.21029356806231889</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y196" s="6">
+        <v>21.029356806231888</v>
+      </c>
+      <c r="Z196" s="2"/>
+      <c r="AA196" s="6"/>
+    </row>
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>2</v>
       </c>
@@ -15675,11 +16061,13 @@
       <c r="X197" s="2">
         <v>5896.0178158243116</v>
       </c>
-      <c r="Y197" s="2">
-        <v>0.2292870468308166</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y197" s="6">
+        <v>22.928704683081662</v>
+      </c>
+      <c r="Z197" s="2"/>
+      <c r="AA197" s="6"/>
+    </row>
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>2</v>
       </c>
@@ -15752,11 +16140,13 @@
       <c r="X198" s="2">
         <v>9007.4450962040792</v>
       </c>
-      <c r="Y198" s="2">
-        <v>0.26448270292264581</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y198" s="6">
+        <v>26.448270292264581</v>
+      </c>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="6"/>
+    </row>
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>2</v>
       </c>
@@ -15829,11 +16219,13 @@
       <c r="X199" s="2">
         <v>3856.880044776055</v>
       </c>
-      <c r="Y199" s="2">
-        <v>0.20946698822375781</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y199" s="6">
+        <v>20.94669882237578</v>
+      </c>
+      <c r="Z199" s="2"/>
+      <c r="AA199" s="6"/>
+    </row>
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>2</v>
       </c>
@@ -15906,11 +16298,13 @@
       <c r="X200" s="2">
         <v>6629.6852867376556</v>
       </c>
-      <c r="Y200" s="2">
-        <v>0.228984898946124</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y200" s="6">
+        <v>22.8984898946124</v>
+      </c>
+      <c r="Z200" s="2"/>
+      <c r="AA200" s="6"/>
+    </row>
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>2</v>
       </c>
@@ -15983,11 +16377,13 @@
       <c r="X201" s="2">
         <v>9705.4299825389717</v>
       </c>
-      <c r="Y201" s="2">
-        <v>0.26661796924233028</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y201" s="6">
+        <v>26.661796924233027</v>
+      </c>
+      <c r="Z201" s="2"/>
+      <c r="AA201" s="6"/>
+    </row>
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>2</v>
       </c>
@@ -16060,11 +16456,13 @@
       <c r="X202" s="2">
         <v>3593.2229596687189</v>
       </c>
-      <c r="Y202" s="2">
-        <v>0.20781642958876639</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y202" s="6">
+        <v>20.781642958876638</v>
+      </c>
+      <c r="Z202" s="2"/>
+      <c r="AA202" s="6"/>
+    </row>
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>2</v>
       </c>
@@ -16137,11 +16535,13 @@
       <c r="X203" s="2">
         <v>6767.4185596746756</v>
       </c>
-      <c r="Y203" s="2">
-        <v>0.23368561472658969</v>
-      </c>
-    </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y203" s="6">
+        <v>23.368561472658968</v>
+      </c>
+      <c r="Z203" s="2"/>
+      <c r="AA203" s="6"/>
+    </row>
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>2</v>
       </c>
@@ -16214,11 +16614,13 @@
       <c r="X204" s="2">
         <v>9688.3996186252862</v>
       </c>
-      <c r="Y204" s="2">
-        <v>0.26879495377226242</v>
-      </c>
-    </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y204" s="6">
+        <v>26.879495377226242</v>
+      </c>
+      <c r="Z204" s="2"/>
+      <c r="AA204" s="6"/>
+    </row>
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>2</v>
       </c>
@@ -16291,11 +16693,13 @@
       <c r="X205" s="2">
         <v>3570.6615327044929</v>
       </c>
-      <c r="Y205" s="2">
-        <v>0.21168369600646991</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y205" s="6">
+        <v>21.16836960064699</v>
+      </c>
+      <c r="Z205" s="2"/>
+      <c r="AA205" s="6"/>
+    </row>
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>2</v>
       </c>
@@ -16368,11 +16772,13 @@
       <c r="X206" s="2">
         <v>6252.1947717177027</v>
       </c>
-      <c r="Y206" s="2">
-        <v>0.23881888305297161</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y206" s="6">
+        <v>23.88188830529716</v>
+      </c>
+      <c r="Z206" s="2"/>
+      <c r="AA206" s="6"/>
+    </row>
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>2</v>
       </c>
@@ -16445,11 +16851,13 @@
       <c r="X207" s="2">
         <v>9802.2906384624803</v>
       </c>
-      <c r="Y207" s="2">
-        <v>0.28237486985596427</v>
-      </c>
-    </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y207" s="6">
+        <v>28.237486985596426</v>
+      </c>
+      <c r="Z207" s="2"/>
+      <c r="AA207" s="6"/>
+    </row>
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>2</v>
       </c>
@@ -16522,11 +16930,13 @@
       <c r="X208" s="2">
         <v>3756.4671920193969</v>
       </c>
-      <c r="Y208" s="2">
-        <v>0.213313828865869</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y208" s="6">
+        <v>21.331382886586901</v>
+      </c>
+      <c r="Z208" s="2"/>
+      <c r="AA208" s="6"/>
+    </row>
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>1</v>
       </c>
@@ -16599,11 +17009,13 @@
       <c r="X209" s="2">
         <v>5973.4553242678357</v>
       </c>
-      <c r="Y209" s="2">
-        <v>0.2288504836513614</v>
-      </c>
-    </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y209" s="6">
+        <v>22.885048365136139</v>
+      </c>
+      <c r="Z209" s="2"/>
+      <c r="AA209" s="6"/>
+    </row>
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>1</v>
       </c>
@@ -16676,11 +17088,13 @@
       <c r="X210" s="2">
         <v>9200.1299831682099</v>
       </c>
-      <c r="Y210" s="2">
-        <v>0.26781193414737919</v>
-      </c>
-    </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y210" s="6">
+        <v>26.78119341473792</v>
+      </c>
+      <c r="Z210" s="2"/>
+      <c r="AA210" s="6"/>
+    </row>
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>1</v>
       </c>
@@ -16753,11 +17167,13 @@
       <c r="X211" s="2">
         <v>3689.8830334327681</v>
       </c>
-      <c r="Y211" s="2">
-        <v>0.20851944991123611</v>
-      </c>
-    </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y211" s="6">
+        <v>20.851944991123609</v>
+      </c>
+      <c r="Z211" s="2"/>
+      <c r="AA211" s="6"/>
+    </row>
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>1</v>
       </c>
@@ -16830,11 +17246,13 @@
       <c r="X212" s="2">
         <v>5507.5559684290611</v>
       </c>
-      <c r="Y212" s="2">
-        <v>0.23142683408068751</v>
-      </c>
-    </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y212" s="6">
+        <v>23.142683408068752</v>
+      </c>
+      <c r="Z212" s="2"/>
+      <c r="AA212" s="6"/>
+    </row>
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>1</v>
       </c>
@@ -16907,11 +17325,13 @@
       <c r="X213" s="2">
         <v>8068.5130686200546</v>
       </c>
-      <c r="Y213" s="2">
-        <v>0.2681103565036238</v>
-      </c>
-    </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y213" s="6">
+        <v>26.811035650362381</v>
+      </c>
+      <c r="Z213" s="2"/>
+      <c r="AA213" s="6"/>
+    </row>
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>1</v>
       </c>
@@ -16984,11 +17404,13 @@
       <c r="X214" s="2">
         <v>3367.2837311593312</v>
       </c>
-      <c r="Y214" s="2">
-        <v>0.21117666548090741</v>
-      </c>
-    </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y214" s="6">
+        <v>21.117666548090742</v>
+      </c>
+      <c r="Z214" s="2"/>
+      <c r="AA214" s="6"/>
+    </row>
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>1</v>
       </c>
@@ -17061,11 +17483,13 @@
       <c r="X215" s="2">
         <v>5964.0030160957213</v>
       </c>
-      <c r="Y215" s="2">
-        <v>0.2291657018617099</v>
-      </c>
-    </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y215" s="6">
+        <v>22.91657018617099</v>
+      </c>
+      <c r="Z215" s="2"/>
+      <c r="AA215" s="6"/>
+    </row>
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>1</v>
       </c>
@@ -17138,11 +17562,13 @@
       <c r="X216" s="2">
         <v>8964.0698634692162</v>
       </c>
-      <c r="Y216" s="2">
-        <v>0.26882977975770772</v>
-      </c>
-    </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y216" s="6">
+        <v>26.882977975770771</v>
+      </c>
+      <c r="Z216" s="2"/>
+      <c r="AA216" s="6"/>
+    </row>
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>1</v>
       </c>
@@ -17215,11 +17641,13 @@
       <c r="X217" s="2">
         <v>3426.8539520501631</v>
       </c>
-      <c r="Y217" s="2">
-        <v>0.20899414169700251</v>
-      </c>
-    </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y217" s="6">
+        <v>20.89941416970025</v>
+      </c>
+      <c r="Z217" s="2"/>
+      <c r="AA217" s="6"/>
+    </row>
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>1</v>
       </c>
@@ -17292,11 +17720,13 @@
       <c r="X218" s="2">
         <v>5330.0899562285213</v>
       </c>
-      <c r="Y218" s="2">
-        <v>0.2277073738874266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y218" s="6">
+        <v>22.77073738874266</v>
+      </c>
+      <c r="Z218" s="2"/>
+      <c r="AA218" s="6"/>
+    </row>
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>1</v>
       </c>
@@ -17369,11 +17799,13 @@
       <c r="X219" s="2">
         <v>8074.7825195793403</v>
       </c>
-      <c r="Y219" s="2">
-        <v>0.26673990852240742</v>
-      </c>
-    </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y219" s="6">
+        <v>26.673990852240742</v>
+      </c>
+      <c r="Z219" s="2"/>
+      <c r="AA219" s="6"/>
+    </row>
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>1</v>
       </c>
@@ -17446,14 +17878,16 @@
       <c r="X220" s="2">
         <v>3339.4796563329451</v>
       </c>
-      <c r="Y220" s="2">
-        <v>0.21036158578974701</v>
-      </c>
-    </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Y220" s="6">
+        <v>21.0361585789747</v>
+      </c>
+      <c r="Z220" s="2"/>
+      <c r="AA220" s="6"/>
+    </row>
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
